--- a/Benchmarks/reports/report.xlsx
+++ b/Benchmarks/reports/report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,21 +501,15 @@
           <t>segmentation</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>27690194505764</t>
-        </is>
+      <c r="C2" t="n">
+        <v>27690194505764</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>9.78 minutes</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>84%</t>
@@ -536,10 +530,8 @@
           <t>2025-03-17 10:28:00</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+      <c r="J2" t="n">
+        <v>20</v>
       </c>
       <c r="K2" t="inlineStr"/>
     </row>
@@ -554,49 +546,2228 @@
           <t>segmentation</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" t="n">
+        <v>27690194505764</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.76 minutes</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>FastVit-[14M]</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>82%</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>66%</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2025-03-17 10:38:01</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>20</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>{'height': 800, 'width': 800, 'paddingValue': 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Benchmarks</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>segmentation</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
         <is>
           <t>27690194505764</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>9.76 minutes</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.71 minutes</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>83%</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>68%</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>70%</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2025-04-01 13:09:44</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Benchmarks</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>segmentation</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>96409414840361</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.76 minutes</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>93%</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>75%</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2025-04-01 13:26:11</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Benchmarks</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>segmentation</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>27700933251117</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.31 minutes</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>67%</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>39%</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>56%</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2025-04-01 14:34:30</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Benchmarks</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>object-detection</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>27678212788265</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.23 minutes</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>94%</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>97%</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2025-04-01 14:53:17</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Benchmarks</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>object-detection</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>27679128959018</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.86 minutes</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>98%</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>94%</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>84%</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2025-04-01 14:57:28</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Benchmarks</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>object-detection</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>27689531707438</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.92 minutes</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>88%</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>69%</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2025-04-01 15:00:37</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Benchmarks</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>28737850517539</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.87 minutes</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>96%</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2025-04-01 15:04:43</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Benchmarks</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>28738068686884</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.47 minutes</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>93%</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2025-04-01 15:08:25</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Benchmarks</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>28738664783910</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.27 minutes</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>91%</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2025-04-01 15:13:55</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Backbone</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>segmentation</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>27690194505764</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.07 minutes</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>FastVit-[14M]</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>82%</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>80%</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
         <is>
           <t>66%</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>2025-03-17 10:38:01</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2025-04-01 15:24:16</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>{'height': 800, 'width': 800, 'paddingValue': 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Backbone</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>segmentation</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>27690194505764</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.05 minutes</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>SegFormer-[14M]</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>77%</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>66%</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>2025-04-01 15:33:35</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>{'height': 800, 'width': 800, 'paddingValue': 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Backbone</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>segmentation</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>27690194505764</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.22 minutes</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>SEGLVMQA2-[27M]</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>41%</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>33%</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>36%</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>2025-04-01 15:38:41</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>{'height': 64, 'width': 64, 'paddingValue': 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Backbone</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>segmentation</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>96409414840361</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12.14 minutes</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>FastVit-[14M]</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>93%</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>78%</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>2025-04-01 15:51:04</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>{'height': 800, 'width': 800, 'paddingValue': 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Backbone</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>segmentation</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>96409414840361</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>11.02 minutes</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>SegFormer-[14M]</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>69%</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>72%</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>2025-04-01 16:02:19</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>{'height': 800, 'width': 800, 'paddingValue': 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Backbone</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>segmentation</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>96409414840361</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.52 minutes</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>SEGLVMQA2-[27M]</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>64%</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>54%</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>2025-04-01 16:09:07</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>{'height': 64, 'width': 64, 'paddingValue': 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Backbone</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>segmentation</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>27700933251117</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.09 minutes</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>FastVit-[14M]</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>61%</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>41%</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>54%</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>2025-04-01 16:17:53</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>{'height': 800, 'width': 800, 'paddingValue': 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Backbone</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>segmentation</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>27700933251117</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.54 minutes</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>SegFormer-[14M]</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>54%</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>21%</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>46%</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>2025-04-01 16:26:01</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>{'height': 800, 'width': 800, 'paddingValue': 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Backbone</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>segmentation</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>27700933251117</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.31 minutes</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>SEGLVMQA2-[27M]</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6%</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>11%</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>2025-04-01 16:29:34</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>{'height': 64, 'width': 64, 'paddingValue': 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Backbone</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>object-detection</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>27678212788265</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>12.54 minutes</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>RepPoints-[37M]</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>97%</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>96%</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>98%</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>2025-04-01 16:42:32</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>{'height': 640, 'width': 640, 'paddingValue': 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Backbone</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>object-detection</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>27678212788265</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>10.18 minutes</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>RepPoints-[20M]</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>99%</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>96%</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>2025-04-01 18:46:08</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>{'height': 640, 'width': 640, 'paddingValue': 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Backbone</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>object-detection</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>27678212788265</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.38 minutes</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>RtmDet-[9M]</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>89%</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>80%</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>2025-04-01 18:59:52</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>{'height': 800, 'width': 800, 'paddingValue': 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Backbone</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>object-detection</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>27679128959018</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>8.36 minutes</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>RepPoints-[37M]</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>94%</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>2025-04-01 19:08:30</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>{'height': 640, 'width': 640, 'paddingValue': 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Backbone</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>object-detection</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>27679128959018</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.06 minutes</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>RepPoints-[20M]</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>86%</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>2025-04-01 19:15:49</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>{'height': 640, 'width': 640, 'paddingValue': 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Backbone</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>object-detection</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>27679128959018</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.19 minutes</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>RtmDet-[9M]</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>96%</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>86%</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>2025-04-01 19:20:15</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>{'height': 640, 'width': 640, 'paddingValue': 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Backbone</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>object-detection</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>27689531707438</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.88 minutes</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>RepPoints-[37M]</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>58%</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>59%</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>2025-04-01 19:26:22</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>{'height': 640, 'width': 640, 'paddingValue': 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Backbone</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>object-detection</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>27689531707438</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.03 minutes</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>RepPoints-[20M]</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>77%</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>71%</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>2025-04-01 19:31:38</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>{'height': 640, 'width': 640, 'paddingValue': 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Backbone</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>object-detection</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>27689531707438</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>11.45 minutes</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>RtmDet-[9M]</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>36%</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>33%</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>2025-04-01 19:43:20</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>{'height': 6400, 'width': 640, 'paddingValue': 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Backbone</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>28737850517539</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.37 minutes</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>ConvNext-[16M]</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>2025-04-01 19:46:57</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>{'height': 512, 'width': 512, 'paddingValue': 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Backbone</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>28737850517539</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.90 minutes</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>ConvNext-[29M]</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>2025-04-01 19:51:06</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>{'height': 512, 'width': 512, 'paddingValue': 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Backbone</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>28737850517539</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.65 minutes</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>CLSLVMQA2-[21M]</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>96%</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>2025-04-01 19:55:00</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>{'height': 512, 'width': 512, 'paddingValue': 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Backbone</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>28737850517539</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.22 minutes</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>CLSLVMQA2-[27M]</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>89%</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>2025-04-01 19:59:28</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>{'height': 512, 'width': 512, 'paddingValue': 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Backbone</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>28738068686884</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.83 minutes</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>ConvNext-[16M]</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>97%</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>93%</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>2025-04-01 20:02:34</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>{'height': 512, 'width': 512, 'paddingValue': 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Backbone</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>28738068686884</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.49 minutes</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>ConvNext-[29M]</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>98%</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>2025-04-01 20:06:18</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>{'height': 512, 'width': 512, 'paddingValue': 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Backbone</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>28738068686884</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.96 minutes</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>CLSLVMQA2-[21M]</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>88%</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>2025-04-01 20:09:30</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>{'height': 512, 'width': 512, 'paddingValue': 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Backbone</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>28738068686884</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.35 minutes</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>CLSLVMQA2-[27M]</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>99%</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>88%</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>2025-04-01 20:13:07</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>{'height': 512, 'width': 512, 'paddingValue': 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Backbone</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>28738664783910</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>5.72 minutes</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ConvNext-[16M]</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>77%</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>78%</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>2025-04-01 20:19:06</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>{'height': 512, 'width': 512, 'paddingValue': 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Backbone</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>28738664783910</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6.19 minutes</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>ConvNext-[29M]</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>2025-04-01 20:25:33</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>{'height': 512, 'width': 512, 'paddingValue': 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Backbone</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>28738664783910</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.50 minutes</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>CLSLVMQA2-[21M]</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>91%</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>2025-04-01 20:30:21</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>{'height': 512, 'width': 512, 'paddingValue': 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Backbone</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>28738664783910</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.25 minutes</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>CLSLVMQA2-[27M]</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>75%</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>76%</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>2025-04-01 20:35:51</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>{'height': 512, 'width': 512, 'paddingValue': 0}</t>
         </is>
       </c>
     </row>

--- a/Benchmarks/reports/report.xlsx
+++ b/Benchmarks/reports/report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K42"/>
+  <dimension ref="A1:K81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -595,21 +595,15 @@
           <t>segmentation</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>27690194505764</t>
-        </is>
+      <c r="C4" t="n">
+        <v>27690194505764</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>9.71 minutes</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>83%</t>
@@ -630,10 +624,8 @@
           <t>2025-04-01 13:09:44</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+      <c r="J4" t="n">
+        <v>20</v>
       </c>
       <c r="K4" t="inlineStr"/>
     </row>
@@ -648,21 +640,15 @@
           <t>segmentation</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>96409414840361</t>
-        </is>
+      <c r="C5" t="n">
+        <v>96409414840361</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>11.76 minutes</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>93%</t>
@@ -673,20 +659,14 @@
           <t>75%</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
           <t>2025-04-01 13:26:11</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+      <c r="J5" t="n">
+        <v>20</v>
       </c>
       <c r="K5" t="inlineStr"/>
     </row>
@@ -701,21 +681,15 @@
           <t>segmentation</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>27700933251117</t>
-        </is>
+      <c r="C6" t="n">
+        <v>27700933251117</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>8.31 minutes</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>67%</t>
@@ -736,10 +710,8 @@
           <t>2025-04-01 14:34:30</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+      <c r="J6" t="n">
+        <v>20</v>
       </c>
       <c r="K6" t="inlineStr"/>
     </row>
@@ -754,21 +726,15 @@
           <t>object-detection</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>27678212788265</t>
-        </is>
+      <c r="C7" t="n">
+        <v>27678212788265</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
           <t>6.23 minutes</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>100%</t>
@@ -789,10 +755,8 @@
           <t>2025-04-01 14:53:17</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+      <c r="J7" t="n">
+        <v>20</v>
       </c>
       <c r="K7" t="inlineStr"/>
     </row>
@@ -807,21 +771,15 @@
           <t>object-detection</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>27679128959018</t>
-        </is>
+      <c r="C8" t="n">
+        <v>27679128959018</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
           <t>3.86 minutes</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
           <t>98%</t>
@@ -842,10 +800,8 @@
           <t>2025-04-01 14:57:28</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+      <c r="J8" t="n">
+        <v>20</v>
       </c>
       <c r="K8" t="inlineStr"/>
     </row>
@@ -860,21 +816,15 @@
           <t>object-detection</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>27689531707438</t>
-        </is>
+      <c r="C9" t="n">
+        <v>27689531707438</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
           <t>2.92 minutes</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
           <t>88%</t>
@@ -885,20 +835,14 @@
           <t>69%</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
           <t>2025-04-01 15:00:37</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+      <c r="J9" t="n">
+        <v>20</v>
       </c>
       <c r="K9" t="inlineStr"/>
     </row>
@@ -913,21 +857,15 @@
           <t>classification</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>28737850517539</t>
-        </is>
+      <c r="C10" t="n">
+        <v>28737850517539</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
           <t>3.87 minutes</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
           <t>100%</t>
@@ -938,20 +876,14 @@
           <t>96%</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
           <t>2025-04-01 15:04:43</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+      <c r="J10" t="n">
+        <v>20</v>
       </c>
       <c r="K10" t="inlineStr"/>
     </row>
@@ -966,21 +898,15 @@
           <t>classification</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>28738068686884</t>
-        </is>
+      <c r="C11" t="n">
+        <v>28738068686884</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
           <t>3.47 minutes</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
           <t>100%</t>
@@ -991,20 +917,14 @@
           <t>93%</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
           <t>2025-04-01 15:08:25</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+      <c r="J11" t="n">
+        <v>20</v>
       </c>
       <c r="K11" t="inlineStr"/>
     </row>
@@ -1019,21 +939,15 @@
           <t>classification</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>28738664783910</t>
-        </is>
+      <c r="C12" t="n">
+        <v>28738664783910</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
           <t>5.27 minutes</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
           <t>100%</t>
@@ -1044,20 +958,14 @@
           <t>91%</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
           <t>2025-04-01 15:13:55</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+      <c r="J12" t="n">
+        <v>20</v>
       </c>
       <c r="K12" t="inlineStr"/>
     </row>
@@ -1072,10 +980,8 @@
           <t>segmentation</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>27690194505764</t>
-        </is>
+      <c r="C13" t="n">
+        <v>27690194505764</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1097,20 +1003,14 @@
           <t>66%</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
           <t>2025-04-01 15:24:16</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+      <c r="J13" t="n">
+        <v>20</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1129,10 +1029,8 @@
           <t>segmentation</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>27690194505764</t>
-        </is>
+      <c r="C14" t="n">
+        <v>27690194505764</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1154,20 +1052,14 @@
           <t>66%</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
           <t>2025-04-01 15:33:35</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+      <c r="J14" t="n">
+        <v>20</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1186,10 +1078,8 @@
           <t>segmentation</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>27690194505764</t>
-        </is>
+      <c r="C15" t="n">
+        <v>27690194505764</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1221,10 +1111,8 @@
           <t>2025-04-01 15:38:41</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+      <c r="J15" t="n">
+        <v>20</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1243,10 +1131,8 @@
           <t>segmentation</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>96409414840361</t>
-        </is>
+      <c r="C16" t="n">
+        <v>96409414840361</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1268,20 +1154,14 @@
           <t>78%</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
           <t>2025-04-01 15:51:04</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+      <c r="J16" t="n">
+        <v>20</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1300,10 +1180,8 @@
           <t>segmentation</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>96409414840361</t>
-        </is>
+      <c r="C17" t="n">
+        <v>96409414840361</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1325,20 +1203,14 @@
           <t>72%</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
           <t>2025-04-01 16:02:19</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+      <c r="J17" t="n">
+        <v>20</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1357,10 +1229,8 @@
           <t>segmentation</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>96409414840361</t>
-        </is>
+      <c r="C18" t="n">
+        <v>96409414840361</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1382,20 +1252,14 @@
           <t>54%</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
           <t>2025-04-01 16:09:07</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+      <c r="J18" t="n">
+        <v>20</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -1414,10 +1278,8 @@
           <t>segmentation</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>27700933251117</t>
-        </is>
+      <c r="C19" t="n">
+        <v>27700933251117</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1449,10 +1311,8 @@
           <t>2025-04-01 16:17:53</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+      <c r="J19" t="n">
+        <v>20</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -1471,10 +1331,8 @@
           <t>segmentation</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>27700933251117</t>
-        </is>
+      <c r="C20" t="n">
+        <v>27700933251117</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1506,10 +1364,8 @@
           <t>2025-04-01 16:26:01</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+      <c r="J20" t="n">
+        <v>20</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -1528,10 +1384,8 @@
           <t>segmentation</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>27700933251117</t>
-        </is>
+      <c r="C21" t="n">
+        <v>27700933251117</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1563,10 +1417,8 @@
           <t>2025-04-01 16:29:34</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+      <c r="J21" t="n">
+        <v>20</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -1585,10 +1437,8 @@
           <t>object-detection</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>27678212788265</t>
-        </is>
+      <c r="C22" t="n">
+        <v>27678212788265</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1620,10 +1470,8 @@
           <t>2025-04-01 16:42:32</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+      <c r="J22" t="n">
+        <v>20</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -1642,10 +1490,8 @@
           <t>object-detection</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>27678212788265</t>
-        </is>
+      <c r="C23" t="n">
+        <v>27678212788265</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1677,10 +1523,8 @@
           <t>2025-04-01 18:46:08</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+      <c r="J23" t="n">
+        <v>20</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -1699,10 +1543,8 @@
           <t>object-detection</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>27678212788265</t>
-        </is>
+      <c r="C24" t="n">
+        <v>27678212788265</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1724,20 +1566,14 @@
           <t>80%</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
           <t>2025-04-01 18:59:52</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="J24" t="n">
+        <v>10</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -1756,10 +1592,8 @@
           <t>object-detection</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>27679128959018</t>
-        </is>
+      <c r="C25" t="n">
+        <v>27679128959018</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1791,10 +1625,8 @@
           <t>2025-04-01 19:08:30</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+      <c r="J25" t="n">
+        <v>20</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -1813,10 +1645,8 @@
           <t>object-detection</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>27679128959018</t>
-        </is>
+      <c r="C26" t="n">
+        <v>27679128959018</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1848,10 +1678,8 @@
           <t>2025-04-01 19:15:49</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+      <c r="J26" t="n">
+        <v>20</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -1870,10 +1698,8 @@
           <t>object-detection</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>27679128959018</t>
-        </is>
+      <c r="C27" t="n">
+        <v>27679128959018</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1905,10 +1731,8 @@
           <t>2025-04-01 19:20:15</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+      <c r="J27" t="n">
+        <v>20</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -1927,10 +1751,8 @@
           <t>object-detection</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>27689531707438</t>
-        </is>
+      <c r="C28" t="n">
+        <v>27689531707438</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1952,20 +1774,14 @@
           <t>59%</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
           <t>2025-04-01 19:26:22</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+      <c r="J28" t="n">
+        <v>20</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -1984,10 +1800,8 @@
           <t>object-detection</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>27689531707438</t>
-        </is>
+      <c r="C29" t="n">
+        <v>27689531707438</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2009,20 +1823,14 @@
           <t>71%</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
           <t>2025-04-01 19:31:38</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+      <c r="J29" t="n">
+        <v>20</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -2041,10 +1849,8 @@
           <t>object-detection</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>27689531707438</t>
-        </is>
+      <c r="C30" t="n">
+        <v>27689531707438</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2066,20 +1872,14 @@
           <t>33%</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
           <t>2025-04-01 19:43:20</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+      <c r="J30" t="n">
+        <v>20</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -2098,10 +1898,8 @@
           <t>classification</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>28737850517539</t>
-        </is>
+      <c r="C31" t="n">
+        <v>28737850517539</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2123,20 +1921,14 @@
           <t>100%</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
           <t>2025-04-01 19:46:57</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+      <c r="J31" t="n">
+        <v>20</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -2155,10 +1947,8 @@
           <t>classification</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>28737850517539</t>
-        </is>
+      <c r="C32" t="n">
+        <v>28737850517539</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2180,20 +1970,14 @@
           <t>100%</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
           <t>2025-04-01 19:51:06</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+      <c r="J32" t="n">
+        <v>20</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -2212,10 +1996,8 @@
           <t>classification</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>28737850517539</t>
-        </is>
+      <c r="C33" t="n">
+        <v>28737850517539</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2237,20 +2019,14 @@
           <t>96%</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
           <t>2025-04-01 19:55:00</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+      <c r="J33" t="n">
+        <v>20</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -2269,10 +2045,8 @@
           <t>classification</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>28737850517539</t>
-        </is>
+      <c r="C34" t="n">
+        <v>28737850517539</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2294,20 +2068,14 @@
           <t>89%</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
           <t>2025-04-01 19:59:28</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+      <c r="J34" t="n">
+        <v>20</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -2326,10 +2094,8 @@
           <t>classification</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>28738068686884</t>
-        </is>
+      <c r="C35" t="n">
+        <v>28738068686884</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2351,20 +2117,14 @@
           <t>93%</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
           <t>2025-04-01 20:02:34</t>
         </is>
       </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+      <c r="J35" t="n">
+        <v>20</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -2383,10 +2143,8 @@
           <t>classification</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>28738068686884</t>
-        </is>
+      <c r="C36" t="n">
+        <v>28738068686884</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2408,20 +2166,14 @@
           <t>98%</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
           <t>2025-04-01 20:06:18</t>
         </is>
       </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+      <c r="J36" t="n">
+        <v>20</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -2440,10 +2192,8 @@
           <t>classification</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>28738068686884</t>
-        </is>
+      <c r="C37" t="n">
+        <v>28738068686884</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2465,20 +2215,14 @@
           <t>88%</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
           <t>2025-04-01 20:09:30</t>
         </is>
       </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+      <c r="J37" t="n">
+        <v>20</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -2497,10 +2241,8 @@
           <t>classification</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>28738068686884</t>
-        </is>
+      <c r="C38" t="n">
+        <v>28738068686884</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2522,20 +2264,14 @@
           <t>88%</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
           <t>2025-04-01 20:13:07</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+      <c r="J38" t="n">
+        <v>20</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -2554,10 +2290,8 @@
           <t>classification</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>28738664783910</t>
-        </is>
+      <c r="C39" t="n">
+        <v>28738664783910</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2579,20 +2313,14 @@
           <t>78%</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
           <t>2025-04-01 20:19:06</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+      <c r="J39" t="n">
+        <v>20</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -2611,10 +2339,8 @@
           <t>classification</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>28738664783910</t>
-        </is>
+      <c r="C40" t="n">
+        <v>28738664783910</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2636,20 +2362,14 @@
           <t>95%</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
           <t>2025-04-01 20:25:33</t>
         </is>
       </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+      <c r="J40" t="n">
+        <v>20</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -2668,10 +2388,8 @@
           <t>classification</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>28738664783910</t>
-        </is>
+      <c r="C41" t="n">
+        <v>28738664783910</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2693,20 +2411,14 @@
           <t>91%</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
           <t>2025-04-01 20:30:21</t>
         </is>
       </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+      <c r="J41" t="n">
+        <v>20</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -2725,47 +2437,2226 @@
           <t>classification</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C42" t="n">
+        <v>28738664783910</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.25 minutes</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>CLSLVMQA2-[27M]</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>75%</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>76%</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>2025-04-01 20:35:51</t>
+        </is>
+      </c>
+      <c r="J42" t="n">
+        <v>20</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>{'height': 512, 'width': 512, 'paddingValue': 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Benchmarks</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>segmentation</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>27690194505764</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>8.34 minutes</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>83%</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>68%</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>71%</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>2025-04-29 14:07:24</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Benchmarks</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>segmentation</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>96409414840361</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>7.12 minutes</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>79%</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>2025-04-29 14:19:09</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Benchmarks</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>segmentation</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>27700933251117</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>6.08 minutes</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>56%</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>47%</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>46%</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>2025-04-29 14:33:20</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Benchmarks</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>object-detection</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>27678212788265</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.30 minutes</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>98%</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>93%</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>2025-04-29 14:42:17</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Benchmarks</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>object-detection</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>27679128959018</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.96 minutes</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>96%</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>94%</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>2025-04-29 14:46:04</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Benchmarks</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>object-detection</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>27689531707438</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.57 minutes</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>81%</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>2025-04-29 14:49:27</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Benchmarks</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>28737850517539</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.87 minutes</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>2025-04-29 14:53:11</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Benchmarks</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>28738068686884</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.04 minutes</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>2025-04-29 14:56:35</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Benchmarks</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
         <is>
           <t>28738664783910</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>5.25 minutes</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.00 minutes</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>91%</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>2025-04-29 15:02:07</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Backbone</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>segmentation</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>27690194505764</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>8.38 minutes</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>FastVit-[14M]</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>81%</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>2025-04-29 15:12:30</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>{'height': 800, 'width': 800, 'paddingValue': 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Backbone</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>segmentation</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>27690194505764</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>7.08 minutes</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>SegFormer-[14M]</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>78%</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>68%</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>73%</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>2025-04-29 15:41:57</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>{'height': 800, 'width': 800, 'paddingValue': 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Backbone</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>segmentation</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>27690194505764</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.59 minutes</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>SEGLVMQA2-[27M]</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>39%</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>31%</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>34%</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>2025-04-29 16:07:20</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>{'height': 64, 'width': 64, 'paddingValue': 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Backbone</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>segmentation</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>96409414840361</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>7.04 minutes</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>FastVit-[14M]</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>88%</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>78%</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>2025-04-29 17:31:48</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>{'height': 800, 'width': 800, 'paddingValue': 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Backbone</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>segmentation</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>96409414840361</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>6.60 minutes</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>SegFormer-[14M]</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>67%</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>68%</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>2025-04-29 18:32:06</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>{'height': 800, 'width': 800, 'paddingValue': 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Backbone</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>segmentation</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>96409414840361</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.94 minutes</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>SEGLVMQA2-[27M]</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>65%</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>62%</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>2025-04-29 18:40:50</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>{'height': 64, 'width': 64, 'paddingValue': 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Backbone</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>segmentation</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>27700933251117</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>6.41 minutes</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>FastVit-[14M]</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>68%</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>32%</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>48%</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>2025-04-29 18:50:03</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>{'height': 800, 'width': 800, 'paddingValue': 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Backbone</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>segmentation</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>27700933251117</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>5.39 minutes</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>SegFormer-[14M]</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>53%</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>26%</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>56%</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>2025-04-29 18:58:01</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>{'height': 800, 'width': 800, 'paddingValue': 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Backbone</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>segmentation</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>27700933251117</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.41 minutes</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>SEGLVMQA2-[27M]</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>7%</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>9%</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>6%</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>2025-04-29 19:01:25</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>{'height': 64, 'width': 64, 'paddingValue': 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Backbone</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>object-detection</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>27678212788265</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>6.45 minutes</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>RepPoints-[37M]</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>93%</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>93%</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>2025-04-29 19:13:47</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>{'height': 640, 'width': 640, 'paddingValue': 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Backbone</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>object-detection</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>27678212788265</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>5.63 minutes</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>RepPoints-[20M]</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>99%</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>91%</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>2025-04-29 19:24:14</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>{'height': 640, 'width': 640, 'paddingValue': 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Backbone</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>object-detection</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>27678212788265</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.81 minutes</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>RtmDet-[9M]</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>91%</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>82%</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>83%</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>2025-04-29 19:29:20</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>{'height': 800, 'width': 800, 'paddingValue': 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Backbone</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>object-detection</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>27679128959018</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.71 minutes</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>RepPoints-[37M]</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>87%</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>2025-04-29 19:37:49</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>{'height': 640, 'width': 640, 'paddingValue': 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Backbone</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>object-detection</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>27679128959018</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.99 minutes</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>RepPoints-[20M]</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>91%</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>94%</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>88%</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>2025-04-29 19:45:13</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>{'height': 640, 'width': 640, 'paddingValue': 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Backbone</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>object-detection</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>27679128959018</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>3.39 minutes</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>RtmDet-[9M]</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>93%</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>97%</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>78%</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>2025-04-29 19:50:00</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>{'height': 640, 'width': 640, 'paddingValue': 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Backbone</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>object-detection</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>27689531707438</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>3.17 minutes</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>RepPoints-[37M]</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>55%</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>45%</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>2025-04-29 19:56:03</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>{'height': 640, 'width': 640, 'paddingValue': 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Backbone</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>object-detection</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>27689531707438</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.82 minutes</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>RepPoints-[20M]</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>72%</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>69%</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>2025-04-29 20:10:34</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>{'height': 640, 'width': 640, 'paddingValue': 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Backbone</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>object-detection</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>27689531707438</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.90 minutes</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>RtmDet-[9M]</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>58%</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>55%</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>2025-04-29 20:14:47</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>{'height': 640, 'width': 640, 'paddingValue': 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Backbone</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>28737850517539</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.07 minutes</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>ConvNext-[16M]</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>2025-04-29 20:18:09</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>{'height': 512, 'width': 512, 'paddingValue': 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Backbone</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>28737850517539</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.31 minutes</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>ConvNext-[29M]</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>98%</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>2025-04-29 20:22:25</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>{'height': 512, 'width': 512, 'paddingValue': 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Backbone</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>28737850517539</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.65 minutes</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>CLSLVMQA2-[21M]</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>96%</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>2025-04-29 20:26:11</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>{'height': 512, 'width': 512, 'paddingValue': 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Backbone</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>28737850517539</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.99 minutes</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
         <is>
           <t>CLSLVMQA2-[27M]</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>94%</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>2025-04-29 20:30:39</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>{'height': 512, 'width': 512, 'paddingValue': 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Backbone</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>28738068686884</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.77 minutes</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>ConvNext-[16M]</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>93%</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>2025-04-29 20:33:38</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>{'height': 512, 'width': 512, 'paddingValue': 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Backbone</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>28738068686884</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.05 minutes</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>ConvNext-[29M]</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>98%</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>2025-04-29 20:37:15</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>{'height': 512, 'width': 512, 'paddingValue': 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Backbone</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>28738068686884</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.28 minutes</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>CLSLVMQA2-[21M]</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>88%</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>2025-04-29 20:40:25</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>{'height': 512, 'width': 512, 'paddingValue': 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Backbone</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>28738068686884</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2.46 minutes</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>CLSLVMQA2-[27M]</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>81%</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>2025-04-29 20:44:00</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>{'height': 512, 'width': 512, 'paddingValue': 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Backbone</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>28738664783910</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.58 minutes</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>ConvNext-[16M]</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>89%</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>2025-04-29 20:49:48</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>{'height': 512, 'width': 512, 'paddingValue': 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Backbone</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>28738664783910</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.63 minutes</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>ConvNext-[29M]</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>93%</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>2025-04-29 20:56:13</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>{'height': 512, 'width': 512, 'paddingValue': 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Backbone</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>28738664783910</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>3.24 minutes</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>CLSLVMQA2-[21M]</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>91%</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>2025-04-29 21:00:56</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>{'height': 512, 'width': 512, 'paddingValue': 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Backbone</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>28738664783910</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>3.71 minutes</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>CLSLVMQA2-[27M]</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
         <is>
           <t>75%</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>76%</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>2025-04-01 20:35:51</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>2025-04-29 21:06:19</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr">
+      <c r="K81" t="inlineStr">
         <is>
           <t>{'height': 512, 'width': 512, 'paddingValue': 0}</t>
         </is>
